--- a/biology/Zoologie/Brachymyrmex/Brachymyrmex.xlsx
+++ b/biology/Zoologie/Brachymyrmex/Brachymyrmex.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brachymyrmex est un genre de fourmis de la sous-famille des Formicinae. Ces fourmis sont originaires d'Afrique du Nord mais plusieurs espèces se sont dispersées à travers le monde via le commerce mondial. Ce genre est caractérisé par des antennes à 9 segments — moins que la plupart des fourmis — et le pétiole dissimulé par le gastre en vue dorsale. Ce genre a été décrit par Gustav L. Mayr en 1868.
 Cette espèce[précision nécessaire] est une espèce classée invasive et donc l'éléver peux être illégal, voire dangereux pour la biodiversité.
@@ -512,14 +524,16 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (15 sept. 2016)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (15 sept. 2016) :
 Brachymyrmex cordemoyi
 Brachymyrmex depilis
 Brachymyrmex heeri
 Brachymyrmex patagonicus
-Selon ITIS      (30 juil. 2011)[2] :
+Selon ITIS      (30 juil. 2011) :
 Brachymyrmex admotus Mayr, 1887
 Brachymyrmex antennatus Santschi, 1929
 Brachymyrmex australis Forel, 1901
